--- a/stock/data/SK바이오사이언스.xlsx
+++ b/stock/data/SK바이오사이언스.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G751"/>
+  <dimension ref="A1:G784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17718,10 +17718,769 @@
         <v>61300</v>
       </c>
       <c r="F751" t="n">
-        <v>59077</v>
+        <v>59474</v>
       </c>
       <c r="G751" t="n">
         <v>-0.6482982171799028</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B752" t="n">
+        <v>61700</v>
+      </c>
+      <c r="C752" t="n">
+        <v>62200</v>
+      </c>
+      <c r="D752" t="n">
+        <v>61300</v>
+      </c>
+      <c r="E752" t="n">
+        <v>61800</v>
+      </c>
+      <c r="F752" t="n">
+        <v>70786</v>
+      </c>
+      <c r="G752" t="n">
+        <v>0.8156606851549755</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B753" t="n">
+        <v>61900</v>
+      </c>
+      <c r="C753" t="n">
+        <v>62100</v>
+      </c>
+      <c r="D753" t="n">
+        <v>60500</v>
+      </c>
+      <c r="E753" t="n">
+        <v>60500</v>
+      </c>
+      <c r="F753" t="n">
+        <v>124587</v>
+      </c>
+      <c r="G753" t="n">
+        <v>-2.103559870550162</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B754" t="n">
+        <v>60500</v>
+      </c>
+      <c r="C754" t="n">
+        <v>60600</v>
+      </c>
+      <c r="D754" t="n">
+        <v>59500</v>
+      </c>
+      <c r="E754" t="n">
+        <v>59500</v>
+      </c>
+      <c r="F754" t="n">
+        <v>117031</v>
+      </c>
+      <c r="G754" t="n">
+        <v>-1.652892561983471</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B755" t="n">
+        <v>59900</v>
+      </c>
+      <c r="C755" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D755" t="n">
+        <v>59400</v>
+      </c>
+      <c r="E755" t="n">
+        <v>59400</v>
+      </c>
+      <c r="F755" t="n">
+        <v>61910</v>
+      </c>
+      <c r="G755" t="n">
+        <v>-0.1680672268907563</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B756" t="n">
+        <v>59400</v>
+      </c>
+      <c r="C756" t="n">
+        <v>59900</v>
+      </c>
+      <c r="D756" t="n">
+        <v>58900</v>
+      </c>
+      <c r="E756" t="n">
+        <v>59700</v>
+      </c>
+      <c r="F756" t="n">
+        <v>57223</v>
+      </c>
+      <c r="G756" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B757" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C757" t="n">
+        <v>60600</v>
+      </c>
+      <c r="D757" t="n">
+        <v>58800</v>
+      </c>
+      <c r="E757" t="n">
+        <v>60100</v>
+      </c>
+      <c r="F757" t="n">
+        <v>71437</v>
+      </c>
+      <c r="G757" t="n">
+        <v>0.6700167504187605</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B758" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C758" t="n">
+        <v>60700</v>
+      </c>
+      <c r="D758" t="n">
+        <v>59600</v>
+      </c>
+      <c r="E758" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F758" t="n">
+        <v>48537</v>
+      </c>
+      <c r="G758" t="n">
+        <v>-0.3327787021630615</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B759" t="n">
+        <v>59300</v>
+      </c>
+      <c r="C759" t="n">
+        <v>59700</v>
+      </c>
+      <c r="D759" t="n">
+        <v>58800</v>
+      </c>
+      <c r="E759" t="n">
+        <v>59700</v>
+      </c>
+      <c r="F759" t="n">
+        <v>76761</v>
+      </c>
+      <c r="G759" t="n">
+        <v>-0.333889816360601</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B760" t="n">
+        <v>59500</v>
+      </c>
+      <c r="C760" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D760" t="n">
+        <v>59100</v>
+      </c>
+      <c r="E760" t="n">
+        <v>60100</v>
+      </c>
+      <c r="F760" t="n">
+        <v>56768</v>
+      </c>
+      <c r="G760" t="n">
+        <v>0.6700167504187605</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B761" t="n">
+        <v>59200</v>
+      </c>
+      <c r="C761" t="n">
+        <v>59800</v>
+      </c>
+      <c r="D761" t="n">
+        <v>58700</v>
+      </c>
+      <c r="E761" t="n">
+        <v>58700</v>
+      </c>
+      <c r="F761" t="n">
+        <v>77024</v>
+      </c>
+      <c r="G761" t="n">
+        <v>-2.329450915141431</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B762" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C762" t="n">
+        <v>58300</v>
+      </c>
+      <c r="D762" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E762" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F762" t="n">
+        <v>113335</v>
+      </c>
+      <c r="G762" t="n">
+        <v>-2.896081771720613</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B763" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C763" t="n">
+        <v>57500</v>
+      </c>
+      <c r="D763" t="n">
+        <v>56700</v>
+      </c>
+      <c r="E763" t="n">
+        <v>56700</v>
+      </c>
+      <c r="F763" t="n">
+        <v>59833</v>
+      </c>
+      <c r="G763" t="n">
+        <v>-0.5263157894736842</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B764" t="n">
+        <v>57200</v>
+      </c>
+      <c r="C764" t="n">
+        <v>58900</v>
+      </c>
+      <c r="D764" t="n">
+        <v>56900</v>
+      </c>
+      <c r="E764" t="n">
+        <v>58200</v>
+      </c>
+      <c r="F764" t="n">
+        <v>66566</v>
+      </c>
+      <c r="G764" t="n">
+        <v>2.645502645502646</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B765" t="n">
+        <v>57600</v>
+      </c>
+      <c r="C765" t="n">
+        <v>58700</v>
+      </c>
+      <c r="D765" t="n">
+        <v>56900</v>
+      </c>
+      <c r="E765" t="n">
+        <v>57400</v>
+      </c>
+      <c r="F765" t="n">
+        <v>72574</v>
+      </c>
+      <c r="G765" t="n">
+        <v>-1.374570446735395</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B766" t="n">
+        <v>58300</v>
+      </c>
+      <c r="C766" t="n">
+        <v>58900</v>
+      </c>
+      <c r="D766" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E766" t="n">
+        <v>58500</v>
+      </c>
+      <c r="F766" t="n">
+        <v>41381</v>
+      </c>
+      <c r="G766" t="n">
+        <v>1.916376306620209</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B767" t="n">
+        <v>58200</v>
+      </c>
+      <c r="C767" t="n">
+        <v>58800</v>
+      </c>
+      <c r="D767" t="n">
+        <v>58200</v>
+      </c>
+      <c r="E767" t="n">
+        <v>58300</v>
+      </c>
+      <c r="F767" t="n">
+        <v>44314</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-0.3418803418803419</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B768" t="n">
+        <v>58800</v>
+      </c>
+      <c r="C768" t="n">
+        <v>59000</v>
+      </c>
+      <c r="D768" t="n">
+        <v>58300</v>
+      </c>
+      <c r="E768" t="n">
+        <v>58300</v>
+      </c>
+      <c r="F768" t="n">
+        <v>38504</v>
+      </c>
+      <c r="G768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B769" t="n">
+        <v>57900</v>
+      </c>
+      <c r="C769" t="n">
+        <v>58200</v>
+      </c>
+      <c r="D769" t="n">
+        <v>57500</v>
+      </c>
+      <c r="E769" t="n">
+        <v>57500</v>
+      </c>
+      <c r="F769" t="n">
+        <v>44001</v>
+      </c>
+      <c r="G769" t="n">
+        <v>-1.37221269296741</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B770" t="n">
+        <v>57500</v>
+      </c>
+      <c r="C770" t="n">
+        <v>57600</v>
+      </c>
+      <c r="D770" t="n">
+        <v>57100</v>
+      </c>
+      <c r="E770" t="n">
+        <v>57400</v>
+      </c>
+      <c r="F770" t="n">
+        <v>44480</v>
+      </c>
+      <c r="G770" t="n">
+        <v>-0.1739130434782609</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B771" t="n">
+        <v>57900</v>
+      </c>
+      <c r="C771" t="n">
+        <v>58800</v>
+      </c>
+      <c r="D771" t="n">
+        <v>57400</v>
+      </c>
+      <c r="E771" t="n">
+        <v>58800</v>
+      </c>
+      <c r="F771" t="n">
+        <v>66144</v>
+      </c>
+      <c r="G771" t="n">
+        <v>2.439024390243902</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B772" t="n">
+        <v>58300</v>
+      </c>
+      <c r="C772" t="n">
+        <v>59200</v>
+      </c>
+      <c r="D772" t="n">
+        <v>58300</v>
+      </c>
+      <c r="E772" t="n">
+        <v>58600</v>
+      </c>
+      <c r="F772" t="n">
+        <v>56264</v>
+      </c>
+      <c r="G772" t="n">
+        <v>-0.3401360544217687</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B773" t="n">
+        <v>58600</v>
+      </c>
+      <c r="C773" t="n">
+        <v>59400</v>
+      </c>
+      <c r="D773" t="n">
+        <v>58400</v>
+      </c>
+      <c r="E773" t="n">
+        <v>58700</v>
+      </c>
+      <c r="F773" t="n">
+        <v>42134</v>
+      </c>
+      <c r="G773" t="n">
+        <v>0.1706484641638225</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B774" t="n">
+        <v>59000</v>
+      </c>
+      <c r="C774" t="n">
+        <v>59800</v>
+      </c>
+      <c r="D774" t="n">
+        <v>58700</v>
+      </c>
+      <c r="E774" t="n">
+        <v>58800</v>
+      </c>
+      <c r="F774" t="n">
+        <v>91480</v>
+      </c>
+      <c r="G774" t="n">
+        <v>0.1703577512776831</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B775" t="n">
+        <v>59600</v>
+      </c>
+      <c r="C775" t="n">
+        <v>59800</v>
+      </c>
+      <c r="D775" t="n">
+        <v>58900</v>
+      </c>
+      <c r="E775" t="n">
+        <v>59600</v>
+      </c>
+      <c r="F775" t="n">
+        <v>56829</v>
+      </c>
+      <c r="G775" t="n">
+        <v>1.360544217687075</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B776" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C776" t="n">
+        <v>59900</v>
+      </c>
+      <c r="D776" t="n">
+        <v>59100</v>
+      </c>
+      <c r="E776" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F776" t="n">
+        <v>54612</v>
+      </c>
+      <c r="G776" t="n">
+        <v>0.5033557046979865</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B777" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C777" t="n">
+        <v>60700</v>
+      </c>
+      <c r="D777" t="n">
+        <v>59600</v>
+      </c>
+      <c r="E777" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F777" t="n">
+        <v>92371</v>
+      </c>
+      <c r="G777" t="n">
+        <v>-0.1669449081803005</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B778" t="n">
+        <v>60500</v>
+      </c>
+      <c r="C778" t="n">
+        <v>60500</v>
+      </c>
+      <c r="D778" t="n">
+        <v>59500</v>
+      </c>
+      <c r="E778" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F778" t="n">
+        <v>42648</v>
+      </c>
+      <c r="G778" t="n">
+        <v>0.1672240802675585</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B779" t="n">
+        <v>61000</v>
+      </c>
+      <c r="C779" t="n">
+        <v>61900</v>
+      </c>
+      <c r="D779" t="n">
+        <v>59700</v>
+      </c>
+      <c r="E779" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F779" t="n">
+        <v>89487</v>
+      </c>
+      <c r="G779" t="n">
+        <v>-0.1669449081803005</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B780" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C780" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D780" t="n">
+        <v>59300</v>
+      </c>
+      <c r="E780" t="n">
+        <v>59400</v>
+      </c>
+      <c r="F780" t="n">
+        <v>39903</v>
+      </c>
+      <c r="G780" t="n">
+        <v>-0.6688963210702341</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B781" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C781" t="n">
+        <v>60600</v>
+      </c>
+      <c r="D781" t="n">
+        <v>59700</v>
+      </c>
+      <c r="E781" t="n">
+        <v>60100</v>
+      </c>
+      <c r="F781" t="n">
+        <v>64376</v>
+      </c>
+      <c r="G781" t="n">
+        <v>1.178451178451178</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B782" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C782" t="n">
+        <v>60100</v>
+      </c>
+      <c r="D782" t="n">
+        <v>59200</v>
+      </c>
+      <c r="E782" t="n">
+        <v>59500</v>
+      </c>
+      <c r="F782" t="n">
+        <v>41670</v>
+      </c>
+      <c r="G782" t="n">
+        <v>-0.9983361064891847</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B783" t="n">
+        <v>60100</v>
+      </c>
+      <c r="C783" t="n">
+        <v>60100</v>
+      </c>
+      <c r="D783" t="n">
+        <v>58800</v>
+      </c>
+      <c r="E783" t="n">
+        <v>59600</v>
+      </c>
+      <c r="F783" t="n">
+        <v>54720</v>
+      </c>
+      <c r="G783" t="n">
+        <v>0.1680672268907563</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B784" t="n">
+        <v>58900</v>
+      </c>
+      <c r="C784" t="n">
+        <v>59100</v>
+      </c>
+      <c r="D784" t="n">
+        <v>57800</v>
+      </c>
+      <c r="E784" t="n">
+        <v>57900</v>
+      </c>
+      <c r="F784" t="n">
+        <v>84810</v>
+      </c>
+      <c r="G784" t="n">
+        <v>-2.852348993288591</v>
       </c>
     </row>
   </sheetData>
